--- a/co_occurrence_market_trend.xlsx
+++ b/co_occurrence_market_trend.xlsx
@@ -9,11 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="market_trend_new" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="market_trend_release" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="market_trend_trend" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="market_trend_popular" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="market_trend_hot" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="market_trend_top" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="market_trend_latest" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="market_trend_popular" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +545,156 @@
       </c>
       <c r="B11" t="n">
         <v>161</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lot</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>surely</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>formulation</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +826,156 @@
       </c>
       <c r="B11" t="n">
         <v>363</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>tune</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>eye</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>let</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>skin</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>surely</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>lot</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>super</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,625 +1012,251 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nykaa</t>
+          <t>use</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>store</t>
+          <t>serum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hey</t>
+          <t>skin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>shonalicen</t>
+          <t>product</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>sunscreen</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>clearskintalk</t>
+          <t>niacinamide</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hahahah</t>
+          <t>beminimalist</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>apply</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>acid</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jump</t>
+          <t>moisturizer</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>know</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>layer</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>skincare</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>like</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>thank</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>cream</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>humid</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>serum</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>beminimalist</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>weather</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>apply</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>sunscreen</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>please</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>skin</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>serum</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>niacinamide</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>apply</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>acid</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>sunscreen</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>moisturizer</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>please</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>serum</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>love</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>see</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>beminimalist</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>minimalist</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>vitamin</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>salicylic</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>acne</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>spf</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
